--- a/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 2_2020.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Báo cáo/EXCEL/NANOMILK 2_2020.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="13095" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="13095" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'THU CHI'!$A$7:$J$81</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -669,12 +669,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="m/d;@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="m/d;@"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1099,7 +1099,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="243">
@@ -1125,7 +1125,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1142,7 +1142,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1152,7 +1152,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1160,15 +1160,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1179,54 +1179,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1255,38 +1255,38 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1295,7 +1295,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1304,14 +1304,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1321,22 +1321,22 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1345,16 +1345,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1369,7 +1369,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1432,25 +1432,25 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1465,16 +1465,16 @@
     <xf numFmtId="9" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1489,17 +1489,17 @@
     <xf numFmtId="1" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1507,14 +1507,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1560,56 +1560,68 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1638,15 +1650,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1670,9 +1673,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1685,6 +1685,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1733,7 +1736,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1768,7 +1771,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2068,17 +2071,17 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="27" x14ac:dyDescent="0.25">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="222" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
+      <c r="B4" s="222"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -2094,30 +2097,30 @@
       <c r="A7" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="217" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="209" t="s">
+      <c r="C7" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="210" t="s">
+      <c r="D7" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210" t="s">
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="210"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="211" t="s">
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="209" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="206"/>
-      <c r="B8" s="208"/>
-      <c r="C8" s="209"/>
+      <c r="B8" s="218"/>
+      <c r="C8" s="207"/>
       <c r="D8" s="19" t="s">
         <v>71</v>
       </c>
@@ -2136,7 +2139,7 @@
       <c r="I8" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="211"/>
+      <c r="J8" s="209"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
@@ -3579,11 +3582,11 @@
       <c r="J80" s="38"/>
     </row>
     <row r="81" spans="1:14" s="112" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="212" t="s">
+      <c r="A81" s="219" t="s">
         <v>91</v>
       </c>
-      <c r="B81" s="213"/>
-      <c r="C81" s="214"/>
+      <c r="B81" s="220"/>
+      <c r="C81" s="221"/>
       <c r="D81" s="10">
         <f>SUM(D9:D80)</f>
         <v>82000000</v>
@@ -3641,10 +3644,10 @@
       <c r="J83" s="41"/>
     </row>
     <row r="84" spans="1:14" s="42" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="219" t="s">
+      <c r="A84" s="215" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="219"/>
+      <c r="B84" s="215"/>
       <c r="C84" s="119"/>
       <c r="D84" s="43"/>
       <c r="E84" s="43"/>
@@ -3666,39 +3669,39 @@
       <c r="J85" s="41"/>
     </row>
     <row r="86" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B86" s="215" t="s">
+      <c r="B86" s="216" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="215"/>
+      <c r="C86" s="216"/>
     </row>
     <row r="87" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="B87" s="207" t="s">
+      <c r="B87" s="217" t="s">
         <v>69</v>
       </c>
-      <c r="C87" s="209" t="s">
+      <c r="C87" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="D87" s="210" t="s">
+      <c r="D87" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="E87" s="210"/>
-      <c r="F87" s="210"/>
-      <c r="G87" s="210" t="s">
+      <c r="E87" s="208"/>
+      <c r="F87" s="208"/>
+      <c r="G87" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="H87" s="210"/>
-      <c r="I87" s="210"/>
-      <c r="J87" s="211" t="s">
+      <c r="H87" s="208"/>
+      <c r="I87" s="208"/>
+      <c r="J87" s="209" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:14" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A88" s="206"/>
-      <c r="B88" s="208"/>
-      <c r="C88" s="209"/>
+      <c r="B88" s="218"/>
+      <c r="C88" s="207"/>
       <c r="D88" s="19" t="s">
         <v>71</v>
       </c>
@@ -3717,7 +3720,7 @@
       <c r="I88" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J88" s="211"/>
+      <c r="J88" s="209"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="45">
@@ -3760,9 +3763,9 @@
       <c r="J90" s="38"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="216"/>
-      <c r="B91" s="217"/>
-      <c r="C91" s="218"/>
+      <c r="A91" s="211"/>
+      <c r="B91" s="212"/>
+      <c r="C91" s="213"/>
       <c r="D91" s="50">
         <f>SUM(D89:D90)</f>
         <v>0</v>
@@ -3790,39 +3793,39 @@
       <c r="J91" s="12"/>
     </row>
     <row r="94" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B94" s="215" t="s">
+      <c r="B94" s="216" t="s">
         <v>94</v>
       </c>
-      <c r="C94" s="215"/>
+      <c r="C94" s="216"/>
     </row>
     <row r="95" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="B95" s="207" t="s">
+      <c r="B95" s="217" t="s">
         <v>69</v>
       </c>
-      <c r="C95" s="209" t="s">
+      <c r="C95" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="D95" s="210" t="s">
+      <c r="D95" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="E95" s="210"/>
-      <c r="F95" s="210"/>
-      <c r="G95" s="210" t="s">
+      <c r="E95" s="208"/>
+      <c r="F95" s="208"/>
+      <c r="G95" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="H95" s="210"/>
-      <c r="I95" s="210"/>
-      <c r="J95" s="211" t="s">
+      <c r="H95" s="208"/>
+      <c r="I95" s="208"/>
+      <c r="J95" s="209" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:14" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="206"/>
-      <c r="B96" s="208"/>
-      <c r="C96" s="209"/>
+      <c r="B96" s="218"/>
+      <c r="C96" s="207"/>
       <c r="D96" s="19" t="s">
         <v>71</v>
       </c>
@@ -3841,7 +3844,7 @@
       <c r="I96" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J96" s="211"/>
+      <c r="J96" s="209"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="51">
@@ -4064,9 +4067,9 @@
       <c r="J107" s="38"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="216"/>
-      <c r="B108" s="217"/>
-      <c r="C108" s="218"/>
+      <c r="A108" s="211"/>
+      <c r="B108" s="212"/>
+      <c r="C108" s="213"/>
       <c r="D108" s="53">
         <f>SUM(D97:D107)</f>
         <v>0</v>
@@ -4097,39 +4100,39 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B111" s="215" t="s">
+      <c r="B111" s="216" t="s">
         <v>95</v>
       </c>
-      <c r="C111" s="215"/>
+      <c r="C111" s="216"/>
     </row>
     <row r="112" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="B112" s="207" t="s">
+      <c r="B112" s="217" t="s">
         <v>69</v>
       </c>
-      <c r="C112" s="209" t="s">
+      <c r="C112" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="D112" s="210" t="s">
+      <c r="D112" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="E112" s="210"/>
-      <c r="F112" s="210"/>
-      <c r="G112" s="210" t="s">
+      <c r="E112" s="208"/>
+      <c r="F112" s="208"/>
+      <c r="G112" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="H112" s="210"/>
-      <c r="I112" s="210"/>
-      <c r="J112" s="211" t="s">
+      <c r="H112" s="208"/>
+      <c r="I112" s="208"/>
+      <c r="J112" s="209" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A113" s="206"/>
-      <c r="B113" s="208"/>
-      <c r="C113" s="209"/>
+      <c r="B113" s="218"/>
+      <c r="C113" s="207"/>
       <c r="D113" s="19" t="s">
         <v>71</v>
       </c>
@@ -4148,7 +4151,7 @@
       <c r="I113" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J113" s="211"/>
+      <c r="J113" s="209"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="54"/>
@@ -4242,39 +4245,39 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B119" s="220" t="s">
+      <c r="B119" s="214" t="s">
         <v>83</v>
       </c>
-      <c r="C119" s="220"/>
+      <c r="C119" s="214"/>
     </row>
     <row r="120" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="B120" s="207" t="s">
+      <c r="B120" s="217" t="s">
         <v>69</v>
       </c>
-      <c r="C120" s="209" t="s">
+      <c r="C120" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="D120" s="210" t="s">
+      <c r="D120" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="E120" s="210"/>
-      <c r="F120" s="210"/>
-      <c r="G120" s="210" t="s">
+      <c r="E120" s="208"/>
+      <c r="F120" s="208"/>
+      <c r="G120" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="H120" s="210"/>
-      <c r="I120" s="210"/>
-      <c r="J120" s="211" t="s">
+      <c r="H120" s="208"/>
+      <c r="I120" s="208"/>
+      <c r="J120" s="209" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:10" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="206"/>
-      <c r="B121" s="208"/>
-      <c r="C121" s="209"/>
+      <c r="B121" s="218"/>
+      <c r="C121" s="207"/>
       <c r="D121" s="19" t="s">
         <v>71</v>
       </c>
@@ -4293,7 +4296,7 @@
       <c r="I121" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J121" s="211"/>
+      <c r="J121" s="209"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="51">
@@ -4461,10 +4464,10 @@
       <c r="I130" s="11"/>
     </row>
     <row r="131" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B131" s="220" t="s">
+      <c r="B131" s="214" t="s">
         <v>96</v>
       </c>
-      <c r="C131" s="220"/>
+      <c r="C131" s="214"/>
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
@@ -4474,30 +4477,30 @@
       <c r="A132" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="B132" s="207" t="s">
+      <c r="B132" s="217" t="s">
         <v>69</v>
       </c>
-      <c r="C132" s="209" t="s">
+      <c r="C132" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="D132" s="210" t="s">
+      <c r="D132" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="E132" s="210"/>
-      <c r="F132" s="210"/>
-      <c r="G132" s="210" t="s">
+      <c r="E132" s="208"/>
+      <c r="F132" s="208"/>
+      <c r="G132" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="H132" s="210"/>
-      <c r="I132" s="210"/>
-      <c r="J132" s="211" t="s">
+      <c r="H132" s="208"/>
+      <c r="I132" s="208"/>
+      <c r="J132" s="209" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A133" s="206"/>
-      <c r="B133" s="208"/>
-      <c r="C133" s="209"/>
+      <c r="B133" s="218"/>
+      <c r="C133" s="207"/>
       <c r="D133" s="19" t="s">
         <v>71</v>
       </c>
@@ -4516,7 +4519,7 @@
       <c r="I133" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J133" s="211"/>
+      <c r="J133" s="209"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="51">
@@ -4639,9 +4642,9 @@
       <c r="J139" s="49"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="216"/>
-      <c r="B140" s="217"/>
-      <c r="C140" s="218"/>
+      <c r="A140" s="211"/>
+      <c r="B140" s="212"/>
+      <c r="C140" s="213"/>
       <c r="D140" s="53">
         <f>SUM(D134:D139)</f>
         <v>0</v>
@@ -4669,39 +4672,39 @@
       <c r="J140" s="53"/>
     </row>
     <row r="143" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B143" s="220" t="s">
+      <c r="B143" s="214" t="s">
         <v>97</v>
       </c>
-      <c r="C143" s="220"/>
+      <c r="C143" s="214"/>
     </row>
     <row r="144" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="B144" s="207" t="s">
+      <c r="B144" s="217" t="s">
         <v>69</v>
       </c>
-      <c r="C144" s="209" t="s">
+      <c r="C144" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="D144" s="210" t="s">
+      <c r="D144" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="E144" s="210"/>
-      <c r="F144" s="210"/>
-      <c r="G144" s="210" t="s">
+      <c r="E144" s="208"/>
+      <c r="F144" s="208"/>
+      <c r="G144" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="H144" s="210"/>
-      <c r="I144" s="210"/>
-      <c r="J144" s="211" t="s">
+      <c r="H144" s="208"/>
+      <c r="I144" s="208"/>
+      <c r="J144" s="209" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="145" spans="1:10" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A145" s="206"/>
-      <c r="B145" s="208"/>
-      <c r="C145" s="209"/>
+      <c r="B145" s="218"/>
+      <c r="C145" s="207"/>
       <c r="D145" s="19" t="s">
         <v>71</v>
       </c>
@@ -4720,7 +4723,7 @@
       <c r="I145" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J145" s="211"/>
+      <c r="J145" s="209"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="60">
@@ -4993,39 +4996,39 @@
       <c r="J158" s="12"/>
     </row>
     <row r="161" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B161" s="220" t="s">
+      <c r="B161" s="214" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="220"/>
+      <c r="C161" s="214"/>
     </row>
     <row r="162" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="B162" s="209" t="s">
+      <c r="B162" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="C162" s="209" t="s">
+      <c r="C162" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="D162" s="210" t="s">
+      <c r="D162" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="E162" s="210"/>
-      <c r="F162" s="210"/>
-      <c r="G162" s="210" t="s">
+      <c r="E162" s="208"/>
+      <c r="F162" s="208"/>
+      <c r="G162" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="H162" s="210"/>
-      <c r="I162" s="210"/>
-      <c r="J162" s="211" t="s">
+      <c r="H162" s="208"/>
+      <c r="I162" s="208"/>
+      <c r="J162" s="209" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="163" spans="1:10" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="206"/>
-      <c r="B163" s="209"/>
-      <c r="C163" s="209"/>
+      <c r="B163" s="207"/>
+      <c r="C163" s="207"/>
       <c r="D163" s="19" t="s">
         <v>71</v>
       </c>
@@ -5044,7 +5047,7 @@
       <c r="I163" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J163" s="211"/>
+      <c r="J163" s="209"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="62">
@@ -5067,9 +5070,9 @@
       <c r="J164" s="63"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="216"/>
-      <c r="B165" s="217"/>
-      <c r="C165" s="218"/>
+      <c r="A165" s="211"/>
+      <c r="B165" s="212"/>
+      <c r="C165" s="213"/>
       <c r="D165" s="50">
         <f>SUM(D164)</f>
         <v>0</v>
@@ -5097,39 +5100,39 @@
       <c r="J165" s="12"/>
     </row>
     <row r="169" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B169" s="221" t="s">
+      <c r="B169" s="210" t="s">
         <v>98</v>
       </c>
-      <c r="C169" s="221"/>
+      <c r="C169" s="210"/>
     </row>
     <row r="170" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="B170" s="209" t="s">
+      <c r="B170" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="C170" s="209" t="s">
+      <c r="C170" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="D170" s="210" t="s">
+      <c r="D170" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="E170" s="210"/>
-      <c r="F170" s="210"/>
-      <c r="G170" s="210" t="s">
+      <c r="E170" s="208"/>
+      <c r="F170" s="208"/>
+      <c r="G170" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="H170" s="210"/>
-      <c r="I170" s="210"/>
-      <c r="J170" s="211" t="s">
+      <c r="H170" s="208"/>
+      <c r="I170" s="208"/>
+      <c r="J170" s="209" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="171" spans="1:10" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A171" s="206"/>
-      <c r="B171" s="209"/>
-      <c r="C171" s="209"/>
+      <c r="B171" s="207"/>
+      <c r="C171" s="207"/>
       <c r="D171" s="19" t="s">
         <v>71</v>
       </c>
@@ -5148,7 +5151,7 @@
       <c r="I171" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J171" s="211"/>
+      <c r="J171" s="209"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="51">
@@ -5561,39 +5564,39 @@
       <c r="J191" s="12"/>
     </row>
     <row r="193" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B193" s="221" t="s">
+      <c r="B193" s="210" t="s">
         <v>99</v>
       </c>
-      <c r="C193" s="221"/>
+      <c r="C193" s="210"/>
     </row>
     <row r="194" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="B194" s="209" t="s">
+      <c r="B194" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="C194" s="209" t="s">
+      <c r="C194" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="D194" s="210" t="s">
+      <c r="D194" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="E194" s="210"/>
-      <c r="F194" s="210"/>
-      <c r="G194" s="210" t="s">
+      <c r="E194" s="208"/>
+      <c r="F194" s="208"/>
+      <c r="G194" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="H194" s="210"/>
-      <c r="I194" s="210"/>
-      <c r="J194" s="211" t="s">
+      <c r="H194" s="208"/>
+      <c r="I194" s="208"/>
+      <c r="J194" s="209" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="195" spans="1:10" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A195" s="206"/>
-      <c r="B195" s="209"/>
-      <c r="C195" s="209"/>
+      <c r="B195" s="207"/>
+      <c r="C195" s="207"/>
       <c r="D195" s="19" t="s">
         <v>71</v>
       </c>
@@ -5612,7 +5615,7 @@
       <c r="I195" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J195" s="211"/>
+      <c r="J195" s="209"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="51">
@@ -5705,39 +5708,39 @@
       <c r="J199" s="12"/>
     </row>
     <row r="201" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B201" s="221" t="s">
+      <c r="B201" s="210" t="s">
         <v>100</v>
       </c>
-      <c r="C201" s="221"/>
+      <c r="C201" s="210"/>
     </row>
     <row r="202" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="B202" s="209" t="s">
+      <c r="B202" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="C202" s="209" t="s">
+      <c r="C202" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="D202" s="210" t="s">
+      <c r="D202" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="E202" s="210"/>
-      <c r="F202" s="210"/>
-      <c r="G202" s="210" t="s">
+      <c r="E202" s="208"/>
+      <c r="F202" s="208"/>
+      <c r="G202" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="H202" s="210"/>
-      <c r="I202" s="210"/>
-      <c r="J202" s="211" t="s">
+      <c r="H202" s="208"/>
+      <c r="I202" s="208"/>
+      <c r="J202" s="209" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="203" spans="1:10" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A203" s="206"/>
-      <c r="B203" s="209"/>
-      <c r="C203" s="209"/>
+      <c r="B203" s="207"/>
+      <c r="C203" s="207"/>
       <c r="D203" s="19" t="s">
         <v>71</v>
       </c>
@@ -5756,7 +5759,7 @@
       <c r="I203" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J203" s="211"/>
+      <c r="J203" s="209"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="62">
@@ -5809,39 +5812,39 @@
       <c r="J205" s="12"/>
     </row>
     <row r="208" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B208" s="221" t="s">
+      <c r="B208" s="210" t="s">
         <v>101</v>
       </c>
-      <c r="C208" s="221"/>
+      <c r="C208" s="210"/>
     </row>
     <row r="209" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="B209" s="209" t="s">
+      <c r="B209" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="C209" s="209" t="s">
+      <c r="C209" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="D209" s="210" t="s">
+      <c r="D209" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="E209" s="210"/>
-      <c r="F209" s="210"/>
-      <c r="G209" s="210" t="s">
+      <c r="E209" s="208"/>
+      <c r="F209" s="208"/>
+      <c r="G209" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="H209" s="210"/>
-      <c r="I209" s="210"/>
-      <c r="J209" s="211" t="s">
+      <c r="H209" s="208"/>
+      <c r="I209" s="208"/>
+      <c r="J209" s="209" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="210" spans="1:10" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A210" s="206"/>
-      <c r="B210" s="209"/>
-      <c r="C210" s="209"/>
+      <c r="B210" s="207"/>
+      <c r="C210" s="207"/>
       <c r="D210" s="19" t="s">
         <v>71</v>
       </c>
@@ -5860,7 +5863,7 @@
       <c r="I210" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J210" s="211"/>
+      <c r="J210" s="209"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="51">
@@ -5993,39 +5996,39 @@
       <c r="J216" s="12"/>
     </row>
     <row r="219" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B219" s="221" t="s">
+      <c r="B219" s="210" t="s">
         <v>102</v>
       </c>
-      <c r="C219" s="221"/>
+      <c r="C219" s="210"/>
     </row>
     <row r="220" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="B220" s="209" t="s">
+      <c r="B220" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="C220" s="209" t="s">
+      <c r="C220" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="D220" s="210" t="s">
+      <c r="D220" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="E220" s="210"/>
-      <c r="F220" s="210"/>
-      <c r="G220" s="210" t="s">
+      <c r="E220" s="208"/>
+      <c r="F220" s="208"/>
+      <c r="G220" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="H220" s="210"/>
-      <c r="I220" s="210"/>
-      <c r="J220" s="211" t="s">
+      <c r="H220" s="208"/>
+      <c r="I220" s="208"/>
+      <c r="J220" s="209" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="221" spans="1:10" s="18" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A221" s="206"/>
-      <c r="B221" s="209"/>
-      <c r="C221" s="209"/>
+      <c r="B221" s="207"/>
+      <c r="C221" s="207"/>
       <c r="D221" s="19" t="s">
         <v>71</v>
       </c>
@@ -6044,7 +6047,7 @@
       <c r="I221" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J221" s="211"/>
+      <c r="J221" s="209"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="45">
@@ -6170,76 +6173,20 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="97">
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="D220:F220"/>
-    <mergeCell ref="G220:I220"/>
-    <mergeCell ref="J220:J221"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:F202"/>
-    <mergeCell ref="G202:I202"/>
-    <mergeCell ref="J202:J203"/>
-    <mergeCell ref="J209:J210"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="D209:F209"/>
-    <mergeCell ref="G209:I209"/>
-    <mergeCell ref="G170:I170"/>
-    <mergeCell ref="J170:J171"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="D194:F194"/>
-    <mergeCell ref="G194:I194"/>
-    <mergeCell ref="J194:J195"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="G162:I162"/>
-    <mergeCell ref="J162:J163"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="G144:I144"/>
-    <mergeCell ref="J144:J145"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="J132:J133"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="G112:I112"/>
     <mergeCell ref="J112:J113"/>
     <mergeCell ref="A95:A96"/>
@@ -6253,20 +6200,76 @@
     <mergeCell ref="B112:B113"/>
     <mergeCell ref="C112:C113"/>
     <mergeCell ref="D112:F112"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="G162:I162"/>
+    <mergeCell ref="J162:J163"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="J144:J145"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="G170:I170"/>
+    <mergeCell ref="J170:J171"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="D194:F194"/>
+    <mergeCell ref="G194:I194"/>
+    <mergeCell ref="J194:J195"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="D209:F209"/>
+    <mergeCell ref="G209:I209"/>
+    <mergeCell ref="J220:J221"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:F202"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="J202:J203"/>
+    <mergeCell ref="J209:J210"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="D220:F220"/>
+    <mergeCell ref="G220:I220"/>
   </mergeCells>
   <pageMargins left="0.36" right="0.27" top="0.36" bottom="0.48" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6277,7 +6280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="P82" sqref="P82"/>
     </sheetView>
   </sheetViews>
@@ -6345,81 +6348,81 @@
       <c r="P2" s="142"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="222" t="s">
+      <c r="A3" s="226" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="222"/>
-      <c r="H3" s="222"/>
-      <c r="I3" s="222"/>
-      <c r="J3" s="222"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="222"/>
-      <c r="M3" s="222"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="222"/>
-      <c r="P3" s="222"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="226"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="226"/>
+      <c r="P3" s="226"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="222" t="s">
+      <c r="A4" s="226" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="222"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="222"/>
-      <c r="J4" s="222"/>
-      <c r="K4" s="223"/>
-      <c r="L4" s="222"/>
-      <c r="M4" s="222"/>
-      <c r="N4" s="222"/>
-      <c r="O4" s="222"/>
-      <c r="P4" s="222"/>
+      <c r="B4" s="226"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="226"/>
+      <c r="J4" s="226"/>
+      <c r="K4" s="227"/>
+      <c r="L4" s="226"/>
+      <c r="M4" s="226"/>
+      <c r="N4" s="226"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="226"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="224" t="s">
+      <c r="A5" s="228" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="225" t="s">
+      <c r="B5" s="229" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="226" t="s">
+      <c r="C5" s="230" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="224" t="s">
+      <c r="D5" s="228" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="224"/>
-      <c r="F5" s="224"/>
-      <c r="G5" s="227" t="s">
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="231" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="227"/>
-      <c r="I5" s="227"/>
-      <c r="J5" s="227"/>
-      <c r="K5" s="228"/>
-      <c r="L5" s="229" t="s">
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
+      <c r="K5" s="232"/>
+      <c r="L5" s="233" t="s">
         <v>110</v>
       </c>
-      <c r="M5" s="227"/>
-      <c r="N5" s="227"/>
-      <c r="O5" s="227"/>
-      <c r="P5" s="224" t="s">
+      <c r="M5" s="231"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="231"/>
+      <c r="P5" s="228" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="224"/>
-      <c r="B6" s="225"/>
-      <c r="C6" s="226"/>
+      <c r="A6" s="228"/>
+      <c r="B6" s="229"/>
+      <c r="C6" s="230"/>
       <c r="D6" s="144" t="s">
         <v>111</v>
       </c>
@@ -6444,7 +6447,7 @@
       <c r="K6" s="146" t="s">
         <v>118</v>
       </c>
-      <c r="L6" s="230"/>
+      <c r="L6" s="234"/>
       <c r="M6" s="145" t="s">
         <v>212</v>
       </c>
@@ -6454,7 +6457,7 @@
       <c r="O6" s="145" t="s">
         <v>214</v>
       </c>
-      <c r="P6" s="224"/>
+      <c r="P6" s="228"/>
     </row>
     <row r="7" spans="1:16" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="147">
@@ -7146,7 +7149,7 @@
       </c>
       <c r="P24" s="166"/>
     </row>
-    <row r="25" spans="1:16" ht="72" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A25" s="160"/>
       <c r="B25" s="168"/>
       <c r="C25" s="193"/>
@@ -8469,7 +8472,7 @@
       </c>
       <c r="P57" s="171"/>
     </row>
-    <row r="58" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A58" s="172">
         <v>443</v>
       </c>
@@ -9425,7 +9428,7 @@
         <f>L82</f>
         <v>0</v>
       </c>
-      <c r="P82" s="242" t="s">
+      <c r="P82" s="205" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9830,15 +9833,15 @@
       <c r="P92" s="171"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A93" s="231" t="s">
+      <c r="A93" s="223" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="231"/>
-      <c r="C93" s="231"/>
-      <c r="D93" s="231"/>
-      <c r="E93" s="231"/>
-      <c r="F93" s="231"/>
-      <c r="G93" s="231"/>
+      <c r="B93" s="223"/>
+      <c r="C93" s="223"/>
+      <c r="D93" s="223"/>
+      <c r="E93" s="223"/>
+      <c r="F93" s="223"/>
+      <c r="G93" s="223"/>
       <c r="H93" s="178">
         <f>SUM(H7:H92)</f>
         <v>1290</v>
@@ -9868,15 +9871,15 @@
       <c r="P93" s="186"/>
     </row>
     <row r="94" spans="1:16" s="183" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="232" t="s">
+      <c r="A94" s="224" t="s">
         <v>182</v>
       </c>
-      <c r="B94" s="233"/>
-      <c r="C94" s="233"/>
-      <c r="D94" s="233"/>
-      <c r="E94" s="233"/>
-      <c r="F94" s="233"/>
-      <c r="G94" s="233"/>
+      <c r="B94" s="225"/>
+      <c r="C94" s="225"/>
+      <c r="D94" s="225"/>
+      <c r="E94" s="225"/>
+      <c r="F94" s="225"/>
+      <c r="G94" s="225"/>
       <c r="H94" s="171">
         <f>H93</f>
         <v>1290</v>
@@ -9894,15 +9897,15 @@
       <c r="P94" s="171"/>
     </row>
     <row r="95" spans="1:16" s="183" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="232" t="s">
+      <c r="A95" s="224" t="s">
         <v>183</v>
       </c>
-      <c r="B95" s="233"/>
-      <c r="C95" s="233"/>
-      <c r="D95" s="233"/>
-      <c r="E95" s="233"/>
-      <c r="F95" s="233"/>
-      <c r="G95" s="233"/>
+      <c r="B95" s="225"/>
+      <c r="C95" s="225"/>
+      <c r="D95" s="225"/>
+      <c r="E95" s="225"/>
+      <c r="F95" s="225"/>
+      <c r="G95" s="225"/>
       <c r="H95" s="171"/>
       <c r="I95" s="174"/>
       <c r="J95" s="174"/>
@@ -9917,15 +9920,15 @@
       <c r="P95" s="171"/>
     </row>
     <row r="96" spans="1:16" s="183" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="232" t="s">
+      <c r="A96" s="224" t="s">
         <v>184</v>
       </c>
-      <c r="B96" s="233"/>
-      <c r="C96" s="233"/>
-      <c r="D96" s="233"/>
-      <c r="E96" s="233"/>
-      <c r="F96" s="233"/>
-      <c r="G96" s="233"/>
+      <c r="B96" s="225"/>
+      <c r="C96" s="225"/>
+      <c r="D96" s="225"/>
+      <c r="E96" s="225"/>
+      <c r="F96" s="225"/>
+      <c r="G96" s="225"/>
       <c r="H96" s="171"/>
       <c r="I96" s="174"/>
       <c r="J96" s="174"/>
@@ -9940,15 +9943,15 @@
       <c r="P96" s="171"/>
     </row>
     <row r="97" spans="1:16" s="183" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="232" t="s">
+      <c r="A97" s="224" t="s">
         <v>185</v>
       </c>
-      <c r="B97" s="233"/>
-      <c r="C97" s="233"/>
-      <c r="D97" s="233"/>
-      <c r="E97" s="233"/>
-      <c r="F97" s="233"/>
-      <c r="G97" s="233"/>
+      <c r="B97" s="225"/>
+      <c r="C97" s="225"/>
+      <c r="D97" s="225"/>
+      <c r="E97" s="225"/>
+      <c r="F97" s="225"/>
+      <c r="G97" s="225"/>
       <c r="H97" s="171"/>
       <c r="I97" s="174"/>
       <c r="J97" s="174"/>
@@ -10075,11 +10078,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A93:G93"/>
-    <mergeCell ref="A94:G94"/>
-    <mergeCell ref="A95:G95"/>
-    <mergeCell ref="A96:G96"/>
-    <mergeCell ref="A97:G97"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A4:P4"/>
     <mergeCell ref="A5:A6"/>
@@ -10090,6 +10088,11 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="P5:P6"/>
+    <mergeCell ref="A93:G93"/>
+    <mergeCell ref="A94:G94"/>
+    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="A96:G96"/>
+    <mergeCell ref="A97:G97"/>
   </mergeCells>
   <pageMargins left="0.31" right="0.22" top="0.45" bottom="0.43" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10100,7 +10103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+    <sheetView topLeftCell="C13" workbookViewId="0">
       <selection activeCell="F13" sqref="F1:M1048576"/>
     </sheetView>
   </sheetViews>
@@ -10156,26 +10159,26 @@
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="236" t="s">
+      <c r="A4" s="237" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="236"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="236"/>
-      <c r="E4" s="236"/>
+      <c r="B4" s="237"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="237"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="238" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -10326,7 +10329,7 @@
         <f>'THU CHI'!I128</f>
         <v>166650000</v>
       </c>
-      <c r="E17" s="239" t="s">
+      <c r="E17" s="240" t="s">
         <v>206</v>
       </c>
     </row>
@@ -10340,7 +10343,7 @@
         <f>'THU CHI'!I199</f>
         <v>116200000</v>
       </c>
-      <c r="E18" s="240"/>
+      <c r="E18" s="241"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="100"/>
@@ -10352,7 +10355,7 @@
         <f>'THU CHI'!I165</f>
         <v>2000000</v>
       </c>
-      <c r="E19" s="240"/>
+      <c r="E19" s="241"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="82"/>
@@ -10364,7 +10367,7 @@
         <f>'THU CHI'!I91</f>
         <v>7542000</v>
       </c>
-      <c r="E20" s="240"/>
+      <c r="E20" s="241"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="82"/>
@@ -10376,7 +10379,7 @@
         <f>'THU CHI'!I108</f>
         <v>9051280</v>
       </c>
-      <c r="E21" s="240"/>
+      <c r="E21" s="241"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="82"/>
@@ -10388,7 +10391,7 @@
         <f>'THU CHI'!I158</f>
         <v>190109800</v>
       </c>
-      <c r="E22" s="240"/>
+      <c r="E22" s="241"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="82"/>
@@ -10400,7 +10403,7 @@
         <f>'THU CHI'!I191</f>
         <v>11409900</v>
       </c>
-      <c r="E23" s="240"/>
+      <c r="E23" s="241"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="82"/>
@@ -10412,7 +10415,7 @@
         <f>'THU CHI'!I216</f>
         <v>7445000</v>
       </c>
-      <c r="E24" s="240"/>
+      <c r="E24" s="241"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="82"/>
@@ -10424,7 +10427,7 @@
         <f>'THU CHI'!I225</f>
         <v>3155200</v>
       </c>
-      <c r="E25" s="240"/>
+      <c r="E25" s="241"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="85"/>
@@ -10436,7 +10439,7 @@
         <f>'THU CHI'!I140</f>
         <v>1125700</v>
       </c>
-      <c r="E26" s="241"/>
+      <c r="E26" s="242"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="101"/>
@@ -10454,10 +10457,10 @@
       <c r="E27" s="101"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="238" t="s">
+      <c r="A28" s="239" t="s">
         <v>199</v>
       </c>
-      <c r="B28" s="238"/>
+      <c r="B28" s="239"/>
       <c r="C28" s="101"/>
       <c r="D28" s="89">
         <f>C27-D27</f>
@@ -10466,20 +10469,20 @@
       <c r="E28" s="101"/>
     </row>
     <row r="30" spans="1:5" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="234" t="s">
+      <c r="A30" s="235" t="s">
         <v>207</v>
       </c>
-      <c r="B30" s="234"/>
+      <c r="B30" s="235"/>
       <c r="C30" s="103"/>
       <c r="D30" s="104" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="235" t="s">
+      <c r="A31" s="236" t="s">
         <v>209</v>
       </c>
-      <c r="B31" s="235"/>
+      <c r="B31" s="236"/>
       <c r="C31" s="106"/>
       <c r="D31" s="107" t="s">
         <v>210</v>
